--- a/biology/Zoologie/Senexefigia/Senexefigia.xlsx
+++ b/biology/Zoologie/Senexefigia/Senexefigia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Senexefigia est un genre fossile d'Orthoptères, de la famille des Tettigoniidae, dans l'ordre des Orthoptera.
 Ce genre est monotypique et son espèce type est Senexefigia reticulata.
@@ -512,10 +524,12 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Senexefigia a été créé en 2015 par Juliana Chamorro-Rengifo (d) et Cristiano Lopes-Andrade (d)[1],[2].
-Selon Paleobiology Database en 2022, ce genre est resté monotypique et son espèce type est Senexefigia reticulata nom recombiné de l'espèce initialement décrite sous le protonyme Agraecia reticulata, et dont l'holotype est conservé au Muséum national d'histoire naturelle de Paris[note 2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Senexefigia a été créé en 2015 par Juliana Chamorro-Rengifo (d) et Cristiano Lopes-Andrade (d),.
+Selon Paleobiology Database en 2022, ce genre est resté monotypique et son espèce type est Senexefigia reticulata nom recombiné de l'espèce initialement décrite sous le protonyme Agraecia reticulata, et dont l'holotype est conservé au Muséum national d'histoire naturelle de Paris[note 2],.
 </t>
         </is>
       </c>
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
